--- a/biology/Botanique/Delesseriaceae/Delesseriaceae.xlsx
+++ b/biology/Botanique/Delesseriaceae/Delesseriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Delesseriaceae sont une famille d’algues rouges de l’ordre des Ceramiales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles, tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (26 juillet 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (26 juillet 2013) :
 tribu des Dicroglosseae A.J.K.Millar &amp; J.M.Huisman
 sous-famille des Delesserioideae De Toni
 tribu des Apoglosseae S.-M.Lin, S.Fredericq &amp; M.H.Hommersand
@@ -531,7 +545,7 @@
 tribu des Myriogrammeae M.S.Hommersand &amp; S.Fredericq
 tribu des Phycodryeae M.J.Wynne
 tribu des Schizoserideae M.H.Hommersand &amp; S.Fredericq
-Selon ITIS      (26 juillet 2013)[2] :
+Selon ITIS      (26 juillet 2013) :
 genre Acrosorium
 genre Anisocladella
 genre Apoglossum
@@ -572,7 +586,7 @@
 genre Tokidadendron
 genre Yendonia
 genre Zinovaea
-Selon NCBI  (26 juillet 2013)[3] :
+Selon NCBI  (26 juillet 2013) :
 genre Abroteia
 genre Acrosorium
 genre Anisocladella
@@ -632,7 +646,7 @@
 genre Vanvoorstia
 genre Womersleya
 genre Zellera
-Selon World Register of Marine Species                               (26 juillet 2013)[4] :
+Selon World Register of Marine Species                               (26 juillet 2013) :
 sous-famille des Delesserioideae De Toni
 non-classé Botryocarpeae
 non-classé Caloglossa (Harvey) G.Martens, 1869
@@ -649,7 +663,7 @@
 non-classé Myriogrammeae M.S. Hommersand &amp; S. Fredericq, 1997
 non-classé Phycodryeae M.J. Wynne
 non-classé Schizoserideae M.H. Hommersand &amp; S. Fredericq, 1997
-Selon World Register of Marine Species                               (26 juillet 2013)[4] :
+Selon World Register of Marine Species                               (26 juillet 2013) :
 genre Abroteia J.Agardh in J.D.Hooker, 1876
 genre Acrosorium Zanardini ex Kützing, 1869
 genre Anisocladella Skottsberg, 1923
